--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/12_RosalesManuel/Diagrama__Turnero.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/12_RosalesManuel/Diagrama__Turnero.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCFF0EEF-CD86-4E71-8086-3A91BB5A98D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel M\Desktop\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\12_RosalesManuel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama ER" sheetId="1" r:id="rId1"/>
@@ -84,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,17 +153,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -182,13 +192,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -237,13 +247,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1323975</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -295,13 +305,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1314450</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -353,13 +363,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1362075</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -411,13 +421,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -469,13 +479,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -529,9 +539,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -569,9 +579,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,7 +616,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,7 +651,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -814,153 +824,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="20.7109375" customWidth="1"/>
+    <col min="1" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="L3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="K5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="L5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="F8" s="3" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="F9" s="3" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="F10" s="3" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="F11" s="3" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
